--- a/XLS-spreadsheets/Kalibrace - Brierovo skóre.xlsx
+++ b/XLS-spreadsheets/Kalibrace - Brierovo skóre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad3d434324f7e88d/Documents/CyberRangers/Cyb3r Days 2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{6909EF6F-FB11-4B71-8250-91E2445DE70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61726B94-BF49-4506-8A05-59E4F120A19F}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{6909EF6F-FB11-4B71-8250-91E2445DE70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9C4493A-3CE7-4D91-A540-0A8877D17FD8}"/>
   <bookViews>
-    <workbookView xWindow="39070" yWindow="1490" windowWidth="24490" windowHeight="19460" xr2:uid="{D56D1BC4-FE1E-4889-B9EF-1F7D220E57E7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{D56D1BC4-FE1E-4889-B9EF-1F7D220E57E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Otázky" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +125,17 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -207,6 +222,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,6 +242,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,24 +548,24 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="1" max="1" width="4.46484375" customWidth="1"/>
     <col min="2" max="2" width="69.796875" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
@@ -665,6 +688,20 @@
       <c r="B17" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EE954E5A-C757-4C0E-87B1-F8640E52582A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C12">
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -675,20 +712,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{ACF28995-6429-4777-87F5-0562C83877B3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C11">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EE954E5A-C757-4C0E-87B1-F8640E52582A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -704,6 +727,19 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EE954E5A-C757-4C0E-87B1-F8640E52582A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{ACF28995-6429-4777-87F5-0562C83877B3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -715,19 +751,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>C12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EE954E5A-C757-4C0E-87B1-F8640E52582A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C2:C11</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -944,6 +967,20 @@
       <c r="B14" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0344BB98-11A7-490E-97CC-EED68495DAC2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C12:C13">
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -954,20 +991,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{553DD650-B232-4D29-AE16-F85494BD955D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C11">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0344BB98-11A7-490E-97CC-EED68495DAC2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -983,6 +1006,19 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0344BB98-11A7-490E-97CC-EED68495DAC2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{553DD650-B232-4D29-AE16-F85494BD955D}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -995,19 +1031,6 @@
           </x14:cfRule>
           <xm:sqref>C12:C13</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0344BB98-11A7-490E-97CC-EED68495DAC2}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C2:C11</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
